--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1413,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1506,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1673,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1708,28 +1720,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1766,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1904,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1951,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +1997,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2152,10 +2164,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2199,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2245,28 +2257,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2412,10 +2424,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2459,28 +2471,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2505,28 +2517,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2643,10 +2655,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2690,28 +2702,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2736,28 +2748,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2903,10 +2915,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2950,28 +2962,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2996,28 +3008,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3163,10 +3175,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3210,28 +3222,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3256,28 +3268,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3394,10 +3406,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3441,28 +3453,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3487,28 +3499,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3625,10 +3637,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3672,28 +3684,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3718,28 +3730,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3856,10 +3868,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3903,28 +3915,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3949,28 +3961,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4116,10 +4128,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4163,28 +4175,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4209,28 +4221,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4347,10 +4359,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4394,28 +4406,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4440,28 +4452,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4578,10 +4590,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4625,28 +4637,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4671,28 +4683,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4838,10 +4850,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4885,28 +4897,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4931,28 +4943,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5127,10 +5139,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5174,28 +5186,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5220,28 +5232,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5387,10 +5399,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5434,28 +5446,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5480,28 +5492,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5618,10 +5630,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5665,28 +5677,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5711,28 +5723,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5849,10 +5861,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5896,28 +5908,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5942,28 +5954,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6138,10 +6150,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6185,28 +6197,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6231,28 +6243,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6340,10 +6352,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6387,28 +6399,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6433,28 +6445,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6600,10 +6612,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6647,28 +6659,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6693,28 +6705,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6773,10 +6785,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6820,28 +6832,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6866,28 +6878,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6946,10 +6958,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6993,28 +7005,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7039,28 +7051,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7148,10 +7160,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7195,28 +7207,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7241,28 +7253,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7350,10 +7362,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7397,28 +7409,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7443,28 +7455,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7523,10 +7535,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
